--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2782365.392370099</v>
+        <v>2930004.000507229</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13228832.04867466</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852030.743161948</v>
+        <v>612367.9462114773</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5111310.213130345</v>
+        <v>5410134.155676548</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>317.9951907706584</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>189.1997466593649</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -874,13 +876,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.153310355755687</v>
       </c>
       <c r="W4" t="n">
-        <v>74.69690994435288</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,25 +898,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7706626654452</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>101.7637429421853</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>20.86872779098938</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>101.1455774631819</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>118.803044496496</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>144.0581823527383</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>20.24824748785587</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1303,7 +1305,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1345,13 +1347,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>110.4985779252859</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>93.21279068016946</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855914</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7181052831737</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>31.33921635700823</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>182.4378115151379</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446584</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>80.86522355397736</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>54.7666379550599</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1901,13 +1903,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250119</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>7.289790390561775</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2056,16 +2058,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>218.0080577057882</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2096,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2293,13 +2295,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>166.1341091420805</v>
+        <v>67.16278375654387</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.18520213343815</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,10 +2535,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2713,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>145.6874452863847</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>40.19402712855965</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>139.0131859257063</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U31" t="n">
-        <v>232.9393695186478</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>60.05400235868097</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3238,10 +3240,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>239.6265123415444</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,16 +3274,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250158</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>71.04375511693071</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>134.2797507451385</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396531</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H40" t="n">
-        <v>129.5585192392028</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>98.77088257712693</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>64.32128883173087</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068498</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924939</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.295671786446</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.54790254396364</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309552</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026567</v>
       </c>
       <c r="X41" t="n">
-        <v>150.1008373476687</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446587</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>125.42038317939</v>
       </c>
       <c r="W43" t="n">
-        <v>154.883325881198</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886531</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3992,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4028,16 +4030,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250155</v>
       </c>
       <c r="W44" t="n">
-        <v>186.9497267225224</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>34.9064441253084</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>754.3794845092607</v>
+        <v>1102.241535487382</v>
       </c>
       <c r="C2" t="n">
-        <v>731.5191585629649</v>
+        <v>675.3408055006826</v>
       </c>
       <c r="D2" t="n">
-        <v>712.2669417883692</v>
+        <v>252.0481846856828</v>
       </c>
       <c r="E2" t="n">
-        <v>391.0596783836638</v>
+        <v>230.1116488739444</v>
       </c>
       <c r="F2" t="n">
-        <v>369.9759006134681</v>
+        <v>39.00079366246472</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K2" t="n">
-        <v>475.942330131692</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="L2" t="n">
-        <v>475.942330131692</v>
+        <v>859.6725812491123</v>
       </c>
       <c r="M2" t="n">
-        <v>475.942330131692</v>
+        <v>1338.61150549154</v>
       </c>
       <c r="N2" t="n">
-        <v>475.942330131692</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>1587.244713637749</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W2" t="n">
-        <v>1587.244713637749</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="X2" t="n">
-        <v>1175.524714805496</v>
+        <v>1523.386765783618</v>
       </c>
       <c r="Y2" t="n">
-        <v>770.1874447603867</v>
+        <v>1522.089899778912</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>310.3996245719085</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1445421254694</v>
+        <v>789.3385488143365</v>
       </c>
       <c r="M3" t="n">
-        <v>501.1445421254694</v>
+        <v>807.4926073032681</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1445421254694</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="O3" t="n">
-        <v>932.027809635875</v>
+        <v>1286.431531545696</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612.9420047653107</v>
+        <v>448.4751778910335</v>
       </c>
       <c r="C4" t="n">
-        <v>612.9420047653107</v>
+        <v>448.4751778910335</v>
       </c>
       <c r="D4" t="n">
-        <v>612.9420047653107</v>
+        <v>448.4751778910335</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7337989181643</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>38.71266663273713</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>393.4019879271579</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>784.5877828974087</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1742.234349487134</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822179</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.593756048079</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1194.409307548383</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.902165973849</v>
+        <v>1192.234246582973</v>
       </c>
       <c r="W4" t="n">
-        <v>1029.450741787634</v>
+        <v>917.3818427554863</v>
       </c>
       <c r="X4" t="n">
-        <v>1029.450741787634</v>
+        <v>674.8179462012914</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.1079734773764</v>
+        <v>448.4751778910335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.464719255012</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.604393308716</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>1292.35217653412</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>866.3752366819779</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>475.2419029331441</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>475.2419029331441</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>475.2419029331441</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>932.027809635875</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1359.249140302692</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1359.249140302692</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X5" t="n">
-        <v>1351.569545510843</v>
+        <v>1495.547442888648</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.272679506138</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K6" t="n">
-        <v>475.2419029331439</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="L6" t="n">
-        <v>475.2419029331439</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="M6" t="n">
-        <v>932.0278096358747</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="N6" t="n">
-        <v>1388.813716338606</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.32454672534</v>
+        <v>494.9200589091701</v>
       </c>
       <c r="C7" t="n">
-        <v>848.3519836042556</v>
+        <v>494.9200589091701</v>
       </c>
       <c r="D7" t="n">
-        <v>685.0352107310263</v>
+        <v>331.6032860359408</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1453.0544119916</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.0544119916</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1453.0544119916</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>1210.490515437405</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y7" t="n">
-        <v>1210.490515437405</v>
+        <v>685.0860276212358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163286</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4811,7 +4813,7 @@
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
         <v>1556.689382596036</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.0306428277</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1716.675733424113</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.186318550362</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>962.794968850709</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X8" t="n">
-        <v>551.0749700184562</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y8" t="n">
-        <v>549.7781040137505</v>
+        <v>1058.013623052015</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="N9" t="n">
-        <v>874.3078922751886</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="O9" t="n">
-        <v>1424.973427259627</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P9" t="n">
-        <v>1424.973427259627</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R9" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>961.4223778677166</v>
+        <v>976.1595596926588</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4498147466326</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1330418734033</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4993,19 +4995,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1764.398243894584</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1652.783518717527</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1377.93111489004</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="X10" t="n">
-        <v>1377.93111489004</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="Y10" t="n">
-        <v>1151.588346579782</v>
+        <v>976.1595596926588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1752.55847545222</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1752.55847545222</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1658.404141431847</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.427201579705</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>807.3030197691047</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>105.0955788325881</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1148.310474368454</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L11" t="n">
-        <v>2017.019480622188</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M11" t="n">
-        <v>2017.019480622188</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N11" t="n">
-        <v>2664.790728652155</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O11" t="n">
-        <v>3509.935378802968</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P11" t="n">
-        <v>3509.935378802968</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q11" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3405.568084676108</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3184.642513720741</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2926.287604317154</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2568.798189443403</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2172.40683974375</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2172.40683974375</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.40683974375</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>341.8961968556504</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M12" t="n">
-        <v>341.8961968556504</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.605203109385</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O12" t="n">
-        <v>1796.867028071866</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1796.867028071866</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1796.867028071866</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.4823551506159</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C13" t="n">
-        <v>531.4823551506159</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D13" t="n">
-        <v>380.2519457736728</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="E13" t="n">
-        <v>380.2519457736728</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="F13" t="n">
-        <v>380.2519457736728</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>213.994976067905</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2080.476687508323</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.137339734223</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1556.952891234527</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.241423842556</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1000.389020015069</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>757.8251234608739</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.4823551506159</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2508.597492233547</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2081.696762246847</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1658.404141431847</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.427201579705</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>807.3030197691047</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>105.0955788325881</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1148.310474368454</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2017.019480622188</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2017.019480622188</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2017.019480622188</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>2801.65609964504</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P14" t="n">
-        <v>3509.935378802968</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3509.935378802968</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.654761110909</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.654761110909</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.654761110909</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.654761110909</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.934762278656</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2508.597492233547</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>1010.177331902835</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N15" t="n">
-        <v>1010.177331902835</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O15" t="n">
-        <v>1878.886338156569</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P15" t="n">
-        <v>1878.886338156569</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2412.703473914076</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C16" t="n">
-        <v>2240.730910792992</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D16" t="n">
-        <v>2077.414137919763</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E16" t="n">
-        <v>1911.205932072617</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>1739.344157847177</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>1573.087188141409</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>1429.290919649563</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>1329.522351389839</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>1387.013679613997</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>1613.541280819835</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>1968.230602114255</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>2359.416397084506</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>2736.907907960542</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>3092.336036640305</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>3382.935248562206</v>
+        <v>2155.715610578193</v>
       </c>
       <c r="Q16" t="n">
-        <v>3509.935378802968</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="R16" t="n">
-        <v>3462.896765490141</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="S16" t="n">
-        <v>3292.761718009276</v>
+        <v>2112.58069333809</v>
       </c>
       <c r="T16" t="n">
-        <v>3049.422370235176</v>
+        <v>2112.58069333809</v>
       </c>
       <c r="U16" t="n">
-        <v>2769.23792173548</v>
+        <v>1832.396244838394</v>
       </c>
       <c r="V16" t="n">
-        <v>2687.555877741563</v>
+        <v>1832.396244838394</v>
       </c>
       <c r="W16" t="n">
-        <v>2412.703473914076</v>
+        <v>1557.543841010907</v>
       </c>
       <c r="X16" t="n">
-        <v>2412.703473914076</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y16" t="n">
-        <v>2412.703473914076</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,46 +5515,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1007.532766690841</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690841</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109899</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.0699265966</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747412</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.49385590534</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5601,16 +5603,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>357.5299206506891</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675586</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>516.5477476675586</v>
       </c>
       <c r="D19" t="n">
-        <v>850.194499935752</v>
+        <v>353.2309747943293</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886055</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631659</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358243</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302452</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q19" t="n">
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S19" t="n">
         <v>2065.542080025265</v>
@@ -5704,19 +5706,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1601.992572952389</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="V19" t="n">
-        <v>1601.992572952389</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1601.992572952389</v>
+        <v>985.4544125320115</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778166</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675586</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>2184.700581617281</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3160.951640103982</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4006.096290254794</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4714.375569412722</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5829,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.79262694784</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>540.252050633783</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D22" t="n">
-        <v>850.194499935752</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886055</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631659</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573981</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5941,19 +5943,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1654.390500794518</v>
+        <v>1474.177088037789</v>
       </c>
       <c r="W22" t="n">
-        <v>1654.390500794518</v>
+        <v>1199.324684210301</v>
       </c>
       <c r="X22" t="n">
-        <v>1411.826604240323</v>
+        <v>956.7607876561067</v>
       </c>
       <c r="Y22" t="n">
-        <v>1185.483835930065</v>
+        <v>730.4180193458487</v>
       </c>
     </row>
     <row r="23">
@@ -5993,19 +5995,19 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982687</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2177.914297068314</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1934.574949294214</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1654.390500794518</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1654.390500794518</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1654.390500794518</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1411.826604240323</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1185.483835930065</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3344.544449335636</v>
+        <v>750.5367205716725</v>
       </c>
       <c r="C28" t="n">
-        <v>3344.544449335636</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="D28" t="n">
-        <v>3344.544449335636</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>3344.544449335636</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1441.897861421483</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1167.045457593996</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>1167.045457593996</v>
       </c>
       <c r="Y28" t="n">
-        <v>3534.710418047702</v>
+        <v>940.7026892837382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>207.5440612468791</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>923.0523692223782</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1852.677416841655</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>552.7245472657363</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>552.7245472657363</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>552.7245472657363</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>386.5163414185897</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>246.0989818976743</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>246.0989818976743</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6619,13 +6621,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299864</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M31" t="n">
         <v>1132.196759100495</v>
@@ -6634,37 +6636,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656281</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578181</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818943</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506116</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025251</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251151</v>
       </c>
       <c r="U31" t="n">
-        <v>1586.910439808086</v>
+        <v>1542.018283751455</v>
       </c>
       <c r="V31" t="n">
-        <v>1586.910439808086</v>
+        <v>1260.306816359484</v>
       </c>
       <c r="W31" t="n">
-        <v>1312.058035980599</v>
+        <v>985.4544125319971</v>
       </c>
       <c r="X31" t="n">
-        <v>1312.058035980599</v>
+        <v>742.8905159778021</v>
       </c>
       <c r="Y31" t="n">
-        <v>1085.715267670341</v>
+        <v>742.8905159778021</v>
       </c>
     </row>
     <row r="32">
@@ -6701,13 +6703,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.8401132784822</v>
+        <v>606.5662274551883</v>
       </c>
       <c r="C34" t="n">
-        <v>345.8675501573982</v>
+        <v>434.5936643341042</v>
       </c>
       <c r="D34" t="n">
-        <v>345.8675501573982</v>
+        <v>434.5936643341042</v>
       </c>
       <c r="E34" t="n">
-        <v>345.8675501573982</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1823.495097862089</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1543.310649362393</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V34" t="n">
-        <v>1261.599181970422</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W34" t="n">
-        <v>986.7467781429351</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X34" t="n">
-        <v>744.1828815887402</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.8401132784822</v>
+        <v>796.7321961672538</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988745</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
         <v>464.9061722227241</v>
@@ -6947,40 +6949,40 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3114.325629236558</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K36" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L36" t="n">
-        <v>700.2342829360799</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M36" t="n">
-        <v>700.2342829360799</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1789.54922940895</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.54922940895</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>913.8534934449025</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>741.8809303238183</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>578.5641574505889</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>412.3559516034423</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>412.3559516034423</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976743</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7111,34 +7113,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="U37" t="n">
-        <v>2210.954372013976</v>
+        <v>1832.396244838395</v>
       </c>
       <c r="V37" t="n">
-        <v>1929.242904622005</v>
+        <v>1550.684777446424</v>
       </c>
       <c r="W37" t="n">
-        <v>1654.390500794518</v>
+        <v>1275.832373618937</v>
       </c>
       <c r="X37" t="n">
-        <v>1411.826604240323</v>
+        <v>1140.196261755161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1185.483835930065</v>
+        <v>913.8534934449025</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598876</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883245</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623592</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J38" t="n">
         <v>464.9061722227241</v>
@@ -7181,43 +7183,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251597</v>
+        <v>4289.300056251599</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7241,28 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G39" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3666.855944130192</v>
+        <v>3538.818160916386</v>
       </c>
       <c r="C40" t="n">
-        <v>3494.883381009108</v>
+        <v>3538.818160916386</v>
       </c>
       <c r="D40" t="n">
-        <v>3331.566608135879</v>
+        <v>3538.818160916386</v>
       </c>
       <c r="E40" t="n">
-        <v>3165.358402288733</v>
+        <v>3372.60995506924</v>
       </c>
       <c r="F40" t="n">
-        <v>3165.358402288733</v>
+        <v>3200.7481808438</v>
       </c>
       <c r="G40" t="n">
-        <v>3165.358402288733</v>
+        <v>3034.491211138032</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>3034.491211138032</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878308</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102466</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308303</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602724</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572975</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.10819944901</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128774</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>4988.135540050667</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>5068.097056978602</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>5068.097056978602</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>4824.757709204502</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>4544.573260704807</v>
       </c>
       <c r="V40" t="n">
-        <v>4374.43821322394</v>
+        <v>4262.861793312835</v>
       </c>
       <c r="W40" t="n">
-        <v>4099.585809396453</v>
+        <v>4197.890794492905</v>
       </c>
       <c r="X40" t="n">
-        <v>3857.021912842258</v>
+        <v>3955.32689793871</v>
       </c>
       <c r="Y40" t="n">
-        <v>3857.021912842258</v>
+        <v>3728.984129628452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2473.700620977018</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2046.799890990318</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1623.507270175318</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1197.530330323176</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>772.406148512576</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G41" t="n">
-        <v>368.0670861020246</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>70.19870757605939</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I41" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J41" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1148.310474368454</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1148.310474368454</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1148.310474368454</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>1382.869635108143</v>
+        <v>3696.349205754531</v>
       </c>
       <c r="O41" t="n">
-        <v>2228.014285258956</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="P41" t="n">
-        <v>2936.293564416883</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q41" t="n">
-        <v>3392.379043921067</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S41" t="n">
-        <v>3509.935378802969</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T41" t="n">
-        <v>3289.009807847603</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U41" t="n">
-        <v>3030.654898444015</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V41" t="n">
-        <v>3030.654898444015</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W41" t="n">
-        <v>3030.654898444015</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X41" t="n">
-        <v>2879.037891022127</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.700620977018</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>217.6285725961458</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G42" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M42" t="n">
-        <v>70.19870757605939</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>938.9077138297943</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1807.616720083529</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1153.379830100296</v>
+        <v>941.9189991784964</v>
       </c>
       <c r="C43" t="n">
-        <v>981.4072669792122</v>
+        <v>769.9464360574123</v>
       </c>
       <c r="D43" t="n">
-        <v>818.0904941059829</v>
+        <v>606.6296631841828</v>
       </c>
       <c r="E43" t="n">
-        <v>651.8822882588364</v>
+        <v>440.4214573370363</v>
       </c>
       <c r="F43" t="n">
-        <v>480.0205140333969</v>
+        <v>268.5596831115966</v>
       </c>
       <c r="G43" t="n">
-        <v>313.763544327629</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H43" t="n">
-        <v>169.9672758357834</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I43" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L43" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302441</v>
       </c>
       <c r="M43" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="T43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="U43" t="n">
-        <v>2250.611734989188</v>
+        <v>2002.53129231926</v>
       </c>
       <c r="V43" t="n">
-        <v>1968.900267597217</v>
+        <v>1875.844036582502</v>
       </c>
       <c r="W43" t="n">
-        <v>1812.452463676815</v>
+        <v>1600.991632755015</v>
       </c>
       <c r="X43" t="n">
-        <v>1569.88856712262</v>
+        <v>1358.42773620082</v>
       </c>
       <c r="Y43" t="n">
-        <v>1343.545798812362</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1783.828383720881</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1783.828383720881</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1360.535762905882</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5588230537394</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>509.4346412431396</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>105.0955788325882</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J44" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1148.310474368454</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1148.310474368454</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1148.310474368454</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="N44" t="n">
-        <v>1500.425969990046</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O44" t="n">
-        <v>2345.570620140858</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P44" t="n">
-        <v>3053.849899298786</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q44" t="n">
-        <v>3509.935378802969</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R44" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S44" t="n">
-        <v>3405.56808467611</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T44" t="n">
-        <v>3405.56808467611</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U44" t="n">
-        <v>3147.213175272522</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V44" t="n">
-        <v>2789.723760398771</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2600.885652598244</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2189.165653765991</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1783.828383720881</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>217.6285725961458</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G45" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I45" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J45" t="n">
-        <v>341.8961968556505</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K45" t="n">
-        <v>341.8961968556505</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L45" t="n">
-        <v>341.8961968556505</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.605203109385</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>1878.886338156569</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>856.1736890173904</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>684.2011258963064</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="D46" t="n">
-        <v>520.8843530230771</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E46" t="n">
-        <v>520.8843530230771</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F46" t="n">
-        <v>349.0225787976375</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G46" t="n">
-        <v>313.763544327629</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H46" t="n">
-        <v>169.9672758357834</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I46" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M46" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2203.573121676361</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2033.438074195496</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1790.098726421396</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1790.098726421396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.098726421396</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1515.246322593909</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.682426039714</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1046.339657729456</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>479.2295883411379</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>383.7984280026906</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533995</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884138</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681972</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>41.43421332943059</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675094</v>
       </c>
       <c r="O3" t="n">
-        <v>458.4075134701066</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587964</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030766</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
-        <v>478.5220861203824</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,16 +8227,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8295,28 +8297,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>190.7148107956829</v>
+        <v>467.0051119838366</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8377,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8386,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>364.3093421868743</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,10 +8461,10 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>463.2315577343863</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>372.4370567591071</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>915.7958871333648</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>691.5940147839076</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8772,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>898.8268729142835</v>
+        <v>645.7592131966823</v>
       </c>
       <c r="O12" t="n">
-        <v>615.355551300486</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8930,25 +8932,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>915.7958871333648</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>829.9532007932478</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>698.1282300549384</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>38.37143878131349</v>
       </c>
       <c r="O15" t="n">
-        <v>900.6557344229641</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>583.8722719747252</v>
+        <v>479.0344602783164</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,10 +9251,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>280.9020403556215</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>440.9328573103589</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9477,25 +9479,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>255.7306165669554</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9641,10 +9643,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>348.6939416158729</v>
       </c>
       <c r="M23" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>998.750394705596</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>135.7243512442234</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.6533223166459</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10349,16 +10351,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10595,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>763.5414113871921</v>
+        <v>492.8628464086351</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10659,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581332</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>144.4386337072411</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10829,13 +10831,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>398.9108788555778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>238.121634637176</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10911,7 +10913,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11063,19 +11065,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>274.2080680260516</v>
+        <v>625.1822253778538</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11145,16 +11147,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>898.826872914284</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
-        <v>900.6557344229645</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>93.76035440991976</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11300,13 +11302,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055974</v>
       </c>
       <c r="N44" t="n">
-        <v>392.9518406340342</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>900.5806252130703</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>696.3744777561516</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>325.8469039266802</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.96549986132328</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>138.8039401261769</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>36.27850373067525</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>198.029129164074</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>185.371619633593</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>157.2563333981132</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>59.37454630891051</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>112.7602435759709</v>
+        <v>211.7315689615075</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>111.2484948726183</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.2069074316667</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>183.8853134985957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.12997055747906</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>44.44323449605093</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>104.492121429994</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.279441954814615</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>206.3388488977681</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>105.8585068435146</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>12.79978656772434</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>207.7825909574813</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>257.5019614962615</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969872</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>153.4739695386615</v>
       </c>
       <c r="W43" t="n">
-        <v>117.2205539080141</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.4777094801341</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>129.6879558834018</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361402.9018399802</v>
+        <v>463675.082588394</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>361402.9018399801</v>
+        <v>463675.082588394</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883941</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883941</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883936</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.082588394</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.0825883938</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361402.9018399802</v>
+        <v>463675.082588394</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>361402.9018399801</v>
+        <v>463675.082588394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="E2" t="n">
-        <v>405209.31418422</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="F2" t="n">
-        <v>405209.3141842199</v>
+        <v>519878.1229021387</v>
       </c>
       <c r="G2" t="n">
+        <v>519878.1229021387</v>
+      </c>
+      <c r="H2" t="n">
         <v>519878.1229021386</v>
-      </c>
-      <c r="H2" t="n">
-        <v>519878.1229021382</v>
       </c>
       <c r="I2" t="n">
         <v>519878.1229021386</v>
       </c>
       <c r="J2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="K2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="L2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="M2" t="n">
+        <v>519878.1229021389</v>
+      </c>
+      <c r="N2" t="n">
+        <v>519878.122902139</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021388</v>
       </c>
-      <c r="K2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="L2" t="n">
-        <v>519878.1229021389</v>
-      </c>
-      <c r="M2" t="n">
-        <v>519878.1229021387</v>
-      </c>
-      <c r="N2" t="n">
-        <v>519878.1229021389</v>
-      </c>
-      <c r="O2" t="n">
-        <v>405209.3141842199</v>
-      </c>
       <c r="P2" t="n">
-        <v>405209.31418422</v>
+        <v>519878.122902139</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361232</v>
       </c>
       <c r="D3" t="n">
-        <v>29456.39286176439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95919.98339863027</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109990.3304731535</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701976</v>
       </c>
       <c r="L3" t="n">
-        <v>24000.08990045009</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80058.28809514518</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161210.2618115457</v>
+        <v>156089.0640777232</v>
       </c>
       <c r="C4" t="n">
-        <v>161210.2618115457</v>
+        <v>139507.7493322929</v>
       </c>
       <c r="D4" t="n">
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>610.3353139760463</v>
+        <v>800.0602599433261</v>
       </c>
       <c r="F4" t="n">
-        <v>610.3353139760463</v>
+        <v>800.0602599433155</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433156</v>
       </c>
       <c r="H4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
+        <v>800.0602599433671</v>
+      </c>
+      <c r="K4" t="n">
+        <v>800.0602599431446</v>
+      </c>
+      <c r="L4" t="n">
         <v>800.0602599433672</v>
       </c>
-      <c r="K4" t="n">
-        <v>800.0602599433671</v>
-      </c>
-      <c r="L4" t="n">
-        <v>800.0602599433671</v>
-      </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599431455</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599431451</v>
       </c>
       <c r="O4" t="n">
-        <v>610.3353139760465</v>
+        <v>800.0602599432273</v>
       </c>
       <c r="P4" t="n">
-        <v>610.3353139760466</v>
+        <v>800.0602599433674</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26494,22 +26496,22 @@
         <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="O5" t="n">
-        <v>53351.01775780513</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="P5" t="n">
-        <v>53351.01775780513</v>
+        <v>77750.06218842971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161242.7712104311</v>
+        <v>157504.4849408504</v>
       </c>
       <c r="C6" t="n">
-        <v>315868.4918285516</v>
+        <v>308398.6338669924</v>
       </c>
       <c r="D6" t="n">
-        <v>302349.0746788401</v>
+        <v>331805.4675406048</v>
       </c>
       <c r="E6" t="n">
-        <v>255327.9777138086</v>
+        <v>225588.6438971251</v>
       </c>
       <c r="F6" t="n">
-        <v>351247.9611124388</v>
+        <v>441328.0004537657</v>
       </c>
       <c r="G6" t="n">
-        <v>331337.6699806121</v>
+        <v>441328.0004537657</v>
       </c>
       <c r="H6" t="n">
-        <v>441328.0004537652</v>
+        <v>441328.0004537656</v>
       </c>
       <c r="I6" t="n">
+        <v>441328.0004537656</v>
+      </c>
+      <c r="J6" t="n">
+        <v>314750.7318734769</v>
+      </c>
+      <c r="K6" t="n">
+        <v>422681.4000967459</v>
+      </c>
+      <c r="L6" t="n">
         <v>441328.0004537654</v>
       </c>
-      <c r="J6" t="n">
-        <v>320605.4835110088</v>
-      </c>
-      <c r="K6" t="n">
-        <v>441328.0004537654</v>
-      </c>
-      <c r="L6" t="n">
-        <v>417327.9105533158</v>
-      </c>
       <c r="M6" t="n">
-        <v>361269.7123586204</v>
+        <v>261264.1289985984</v>
       </c>
       <c r="N6" t="n">
-        <v>441328.0004537658</v>
+        <v>441328.0004537662</v>
       </c>
       <c r="O6" t="n">
-        <v>351247.9611124388</v>
+        <v>441328.0004537659</v>
       </c>
       <c r="P6" t="n">
-        <v>351247.9611124388</v>
+        <v>441328.0004537659</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>877.4838447007419</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>877.4838447007419</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>877.4838447007423</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>877.4838447007423</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162643</v>
       </c>
       <c r="D4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3000728721144</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162643</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162643</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.3000728721144</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>103.7219796829626</v>
-      </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>231.6731933331288</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -27549,7 +27551,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>276.7410423622957</v>
       </c>
       <c r="W4" t="n">
-        <v>197.4069698448592</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>91.14385805956778</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>299.5201544024733</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>143.6773959976856</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>176.2370265515168</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>296.8468361521187</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>74.65813289307485</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0045900020173</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>168.3957747927655</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>443.4649875463285</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>345.4863855700676</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>18.33743281710261</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="O3" t="n">
-        <v>435.2356237478844</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539677</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759566716</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
-        <v>442.7574853255731</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>168.3155769623496</v>
+        <v>444.6058781505033</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35106,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>341.8101546884499</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="N8" t="n">
         <v>48.74406945557187</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>440.0596680121641</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>877.4838447007419</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3143919494615</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>877.4838447007419</v>
+        <v>624.4161849831406</v>
       </c>
       <c r="O12" t="n">
-        <v>592.1836615782638</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>877.4838447007419</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>792.5622414372236</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>675.0314495426104</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>17.02841056777183</v>
       </c>
       <c r="O15" t="n">
-        <v>877.4838447007419</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968675</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35884,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>548.1076711799159</v>
+        <v>443.269859483507</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8052598432935</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937755</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36121,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>404.8081827057609</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>232.6338360546274</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,10 +36363,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>310.3818991832499</v>
       </c>
       <c r="M23" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>961.47077187115</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>106.3043917586369</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.5286477120479</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K31" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L31" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O31" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977272</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q31" t="n">
         <v>128.2829598391535</v>
@@ -37069,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37315,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>726.1504520311679</v>
+        <v>455.471887052611</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>122.6677925024125</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37551,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>361.4796159561459</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811519</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37716,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968626</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37783,19 +37785,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>236.9284451916056</v>
+        <v>587.9026025434077</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>877.4838447007423</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
-        <v>877.4838447007423</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>71.9895132050911</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127058</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38022,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="N44" t="n">
-        <v>355.6722177995882</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>877.4838447007423</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>675.0314495426099</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2930004.000507229</v>
+        <v>2929307.339302137</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954495</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114773</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>315.0040721972865</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>189.1997466593649</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -876,10 +876,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>2.153310355755687</v>
+        <v>222.6444732257517</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>263.0316841869443</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.7637429421853</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
-        <v>20.86872779098938</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.803044496496</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>368.803222276793</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>20.24824748785587</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871647</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855914</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>31.33921635700823</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686744</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446584</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399538</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>54.7666379550599</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.289790390561775</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2298,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>67.16278375654387</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>145.6874452863847</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.2643090249451</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>105.2310785302743</v>
       </c>
       <c r="E31" t="n">
-        <v>164.5461237886751</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>139.0131859257063</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069273</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969872</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060566</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.9059542963591</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146989</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180515</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892122</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886531</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>60.05400235868097</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3243,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,16 +3274,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.295671786446</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.771360309552</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250158</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898733</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.6836051444971</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.5461237886751</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087103</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069273</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060566</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>33.7994086908846</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146989</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180515</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892122</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>134.2797507451385</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068498</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.295671786446</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396531</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309552</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.2643090249451</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.5461237886751</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831853</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087103</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712693</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969872</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.9059542963591</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146989</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180515</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>64.32128883173087</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886531</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.631722686833</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068498</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924939</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.295671786446</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396364</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.771360309552</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026567</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446587</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.2643090249451</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898733</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.6836051444971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.5461237886751</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831853</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087103</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146989</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>125.42038317939</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892122</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886531</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271555</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250155</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>24.43802729683394</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1102.241535487382</v>
+        <v>1227.540063612213</v>
       </c>
       <c r="C2" t="n">
-        <v>675.3408055006826</v>
+        <v>909.3541320998027</v>
       </c>
       <c r="D2" t="n">
-        <v>252.0481846856828</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>230.1116488739444</v>
+        <v>60.08457143266043</v>
       </c>
       <c r="F2" t="n">
         <v>39.00079366246472</v>
@@ -4330,19 +4330,19 @@
         <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231741</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347454</v>
+        <v>859.6725812491122</v>
       </c>
       <c r="L2" t="n">
-        <v>859.6725812491123</v>
+        <v>859.6725812491122</v>
       </c>
       <c r="M2" t="n">
+        <v>859.6725812491122</v>
+      </c>
+      <c r="N2" t="n">
         <v>1338.61150549154</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1817.550429733968</v>
       </c>
       <c r="O2" t="n">
         <v>1817.550429733968</v>
@@ -4357,25 +4357,25 @@
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615871</v>
+        <v>1609.813899533644</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615871</v>
+        <v>1609.813899533644</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615871</v>
+        <v>1252.324484659894</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615871</v>
+        <v>1252.324484659894</v>
       </c>
       <c r="X2" t="n">
-        <v>1523.386765783618</v>
+        <v>1244.644889868045</v>
       </c>
       <c r="Y2" t="n">
-        <v>1522.089899778912</v>
+        <v>1243.348023863339</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>693.542625066816</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>576.0367215843207</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>472.1967630996057</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>367.4948293725429</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>273.8489990554471</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>179.7952272730511</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231741</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231741</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719085</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="K3" t="n">
-        <v>310.3996245719085</v>
+        <v>126.4191340353607</v>
       </c>
       <c r="L3" t="n">
-        <v>789.3385488143365</v>
+        <v>416.2706818038836</v>
       </c>
       <c r="M3" t="n">
-        <v>807.4926073032681</v>
+        <v>895.2096060463116</v>
       </c>
       <c r="N3" t="n">
-        <v>1286.431531545696</v>
+        <v>1374.148530288739</v>
       </c>
       <c r="O3" t="n">
-        <v>1286.431531545696</v>
+        <v>1853.087454531167</v>
       </c>
       <c r="P3" t="n">
-        <v>1765.370455788124</v>
+        <v>1853.087454531167</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1853.087454531167</v>
       </c>
       <c r="R3" t="n">
-        <v>1847.389765872827</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1766.065518434082</v>
+        <v>1853.782517177125</v>
       </c>
       <c r="T3" t="n">
-        <v>1624.18558273176</v>
+        <v>1711.902581474803</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.417386651397</v>
+        <v>1527.13438539444</v>
       </c>
       <c r="V3" t="n">
-        <v>1234.444247790663</v>
+        <v>1322.161246533706</v>
       </c>
       <c r="W3" t="n">
-        <v>1037.92287062388</v>
+        <v>1125.639869366923</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>962.1625231335863</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>822.4696344868787</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.4751778910335</v>
+        <v>310.4432666731254</v>
       </c>
       <c r="C4" t="n">
-        <v>448.4751778910335</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="D4" t="n">
-        <v>448.4751778910335</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="E4" t="n">
-        <v>282.2669720438871</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="F4" t="n">
-        <v>282.2669720438871</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="H4" t="n">
         <v>138.4707035520414</v>
@@ -4488,25 +4488,25 @@
         <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231741</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273713</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271579</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974087</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615871</v>
@@ -4524,16 +4524,16 @@
         <v>1194.409307548383</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.234246582973</v>
+        <v>969.515900249644</v>
       </c>
       <c r="W4" t="n">
-        <v>917.3818427554863</v>
+        <v>969.515900249644</v>
       </c>
       <c r="X4" t="n">
-        <v>674.8179462012914</v>
+        <v>726.9520036954491</v>
       </c>
       <c r="Y4" t="n">
-        <v>448.4751778910335</v>
+        <v>500.6092353851911</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.947823099961</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1899.61838738015</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1899.61838738015</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1503.227037680497</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X5" t="n">
-        <v>1495.547442888648</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1392.755783351087</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>1128.080930530456</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1678.746465514894</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1678.746465514894</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N6" t="n">
-        <v>1678.746465514894</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1678.746465514894</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.746465514894</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9200589091701</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9200589091701</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>331.6032860359408</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212358</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.0860276212358</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030287</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M8" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N8" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L8" t="n">
-        <v>957.7672188505812</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="N8" t="n">
-        <v>1556.689382596036</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1556.689382596036</v>
-      </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1471.030487888973</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X8" t="n">
-        <v>1059.31048905672</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1058.013623052015</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>687.9211111614576</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>687.9211111614576</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>1238.586646145896</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>1238.586646145896</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1238.586646145896</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.245717477938</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>976.1595596926588</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.502328002917</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.502328002917</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.1595596926588</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5044,22 +5044,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
         <v>5115.135670291427</v>
@@ -5068,22 +5068,22 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.799010768326</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.799010768326</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>615.9842888225141</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>444.0117257014301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>444.0117257014301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>444.0117257014301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
         <v>102.3027134058285</v>
@@ -5208,43 +5208,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.1502575345799</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5293,13 +5293,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L15" t="n">
-        <v>374.0002026854196</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M15" t="n">
-        <v>1429.986740661465</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N15" t="n">
-        <v>1446.844867123559</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O15" t="n">
-        <v>1446.844867123559</v>
+        <v>1589.715560947552</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1589.715560947552</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.715267670341</v>
+        <v>373.420392268322</v>
       </c>
       <c r="C16" t="n">
-        <v>913.7427045492574</v>
+        <v>201.447829147238</v>
       </c>
       <c r="D16" t="n">
-        <v>750.4259316760281</v>
+        <v>201.447829147238</v>
       </c>
       <c r="E16" t="n">
-        <v>584.2177258288816</v>
+        <v>201.447829147238</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5451,37 +5451,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.58069333809</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T16" t="n">
-        <v>2112.58069333809</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U16" t="n">
-        <v>1832.396244838394</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V16" t="n">
-        <v>1832.396244838394</v>
+        <v>1307.345429672328</v>
       </c>
       <c r="W16" t="n">
-        <v>1557.543841010907</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X16" t="n">
-        <v>1502.224004692665</v>
+        <v>789.9291292906456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.881236382407</v>
+        <v>563.5863609803877</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5551,10 +5551,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675586</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>516.5477476675586</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>353.2309747943293</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358243</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302452</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100496</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976532</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656295</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578196</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506131</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.01828375147</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.4544125320115</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778166</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675586</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,19 +5755,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.252050633783</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>368.279487512699</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>368.279487512699</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.177088037789</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1199.324684210301</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>956.7607876561067</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>730.4180193458487</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,13 +5989,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
         <v>2129.375202991803</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>750.5367205716725</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>578.5641574505885</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6420,16 +6420,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1441.897861421483</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1167.045457593996</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1167.045457593996</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>940.7026892837382</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>207.5440612468791</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>923.0523692223782</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1852.677416841655</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2856.963518260713</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,22 +6539,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>552.7245472657363</v>
+        <v>818.4078435766714</v>
       </c>
       <c r="C31" t="n">
-        <v>552.7245472657363</v>
+        <v>646.4352804555874</v>
       </c>
       <c r="D31" t="n">
-        <v>552.7245472657363</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E31" t="n">
-        <v>386.5163414185897</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F31" t="n">
-        <v>246.0989818976743</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976743</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299864</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358235</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302441</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
         <v>1132.196759100495</v>
@@ -6636,37 +6636,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656281</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578181</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818943</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.677127506116</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025251</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251151</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751455</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359484</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.4544125319971</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778021</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.8905159778021</v>
+        <v>1008.573812288737</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1589.715560947552</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>606.5662274551883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>434.5936643341042</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>434.5936643341042</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1540.491264859194</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1265.638861031707</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>1023.074964477512</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>796.7321961672538</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988745</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6952,37 +6952,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4541.493855905343</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905343</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409527</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291429</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805614</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058286</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>855.0038060102931</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>913.8534934449025</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>741.8809303238183</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>578.5641574505889</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>412.3559516034423</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>412.3559516034423</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976743</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
         <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358235</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302441</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7113,34 +7113,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338091</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338091</v>
+        <v>2248.574923959477</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838395</v>
+        <v>1968.390475459782</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446424</v>
+        <v>1686.67900806781</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.832373618937</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="X37" t="n">
-        <v>1140.196261755161</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.8534934449025</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063318</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076618</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261618</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409476</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.407025598876</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883245</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623592</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7189,37 +7189,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251599</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409527</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409527</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291429</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805614</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931864</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232211</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399958</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354848</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7241,28 +7241,28 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854197</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854197</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854197</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3538.818160916386</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>3538.818160916386</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>3538.818160916386</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>3372.60995506924</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>3200.7481808438</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3034.491211138032</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138032</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878308</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102466</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308303</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602724</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572975</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.10819944901</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128774</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050667</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291429</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.097056978602</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5068.097056978602</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4824.757709204502</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>4544.573260704807</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.861793312835</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>4197.890794492905</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>3955.32689793871</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>3728.984129628452</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623575</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7423,40 +7423,40 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3696.349205754531</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905343</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905343</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409527</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291429</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805614</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7478,28 +7478,28 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058286</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058286</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058286</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
         <v>1910.990343986338</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784964</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574123</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841828</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E43" t="n">
-        <v>440.4214573370363</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115966</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
         <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358235</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302441</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
         <v>1132.196759100495</v>
@@ -7587,34 +7587,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818956</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818956</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>2002.53129231926</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582502</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755015</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.42773620082</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,31 +7657,31 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596604</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596604</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747416</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905343</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409527</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291429</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209202</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805614</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
         <v>4173.998480931861</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7715,31 +7715,31 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058286</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058286</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058286</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N45" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
         <v>1910.990343986338</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>274.1644876312682</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312682</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312682</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058286</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058286</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302446</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
         <v>1132.196759100495</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2258.030864761549</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.297351822124</v>
+        <v>2087.895817280684</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.958004048024</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.773555548329</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.062088156358</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.20968432887</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>862.6457877746757</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>636.3030194644177</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.541291948777</v>
+        <v>498.7615575017783</v>
       </c>
       <c r="L2" t="n">
-        <v>383.7984280026906</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533995</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884138</v>
+        <v>521.0563139884136</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8057,25 +8057,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681972</v>
+        <v>315.2944278945557</v>
       </c>
       <c r="M3" t="n">
-        <v>41.43421332943059</v>
+        <v>506.8734716662956</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675094</v>
+        <v>505.1197193675093</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761899</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587964</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030766</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>157.3211482065599</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>102.4815180266284</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>467.0051119838366</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>463.2315577343863</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q11" t="n">
-        <v>224.6533223166459</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N12" t="n">
-        <v>645.7592131966823</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>38.37143878131349</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>347.2670211564397</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9166,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,10 +9251,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>273.3801787779327</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>224.2932485068573</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9418,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>178.8479383043439</v>
       </c>
       <c r="M21" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>348.6939416158729</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9725,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,10 +9889,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>135.7243512442234</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,7 +10360,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>276.0147300838795</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>346.2908240722899</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10600,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>492.8628464086351</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>782.8192206581332</v>
+        <v>522.0689695543915</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10837,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>238.121634637176</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11071,19 +11071,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>625.1822253778538</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11305,19 +11305,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>924.3306556055974</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,25 +11372,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23427,13 +23427,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>138.8039401261769</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189918905</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.9894918991898</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>185.371619633593</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>157.2563333981132</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>211.7315689615075</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.2069074316667</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.6836051444971</v>
+        <v>56.45252661422268</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.12997055747906</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>104.492121429994</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="35">
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>207.1065456054744</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>105.8585068435146</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>207.7825909574813</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069273</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969872</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060566</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.9059542963591</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4739695386615</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>22.13019988286464</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>463675.082588394</v>
+        <v>463675.0825883941</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.082588394</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.082588394</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>463675.0825883936</v>
+        <v>463675.0825883941</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.082588394</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>538759.4679103259</v>
       </c>
       <c r="C2" t="n">
-        <v>538759.4679103257</v>
+        <v>538759.4679103259</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103259</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="E2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="F2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021383</v>
       </c>
       <c r="G2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021384</v>
       </c>
       <c r="H2" t="n">
+        <v>519878.1229021383</v>
+      </c>
+      <c r="I2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="J2" t="n">
+        <v>519878.1229021382</v>
+      </c>
+      <c r="K2" t="n">
+        <v>519878.1229021383</v>
+      </c>
+      <c r="L2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="M2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="N2" t="n">
+        <v>519878.1229021383</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021386</v>
       </c>
-      <c r="I2" t="n">
-        <v>519878.1229021386</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021386</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>519878.1229021384</v>
-      </c>
-      <c r="L2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="M2" t="n">
-        <v>519878.1229021389</v>
-      </c>
-      <c r="N2" t="n">
-        <v>519878.122902139</v>
-      </c>
-      <c r="O2" t="n">
-        <v>519878.1229021388</v>
-      </c>
-      <c r="P2" t="n">
-        <v>519878.122902139</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361232</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701976</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>139507.7493322929</v>
       </c>
       <c r="E4" t="n">
-        <v>800.0602599433261</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="F4" t="n">
-        <v>800.0602599433155</v>
+        <v>800.0602599433673</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433156</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599431446</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433672</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599431455</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599431451</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>800.0602599432273</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="P4" t="n">
-        <v>800.0602599433674</v>
+        <v>800.0602599433671</v>
       </c>
     </row>
     <row r="5">
@@ -26496,22 +26496,22 @@
         <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842971</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>308398.6338669924</v>
       </c>
       <c r="D6" t="n">
-        <v>331805.4675406048</v>
+        <v>331805.4675406045</v>
       </c>
       <c r="E6" t="n">
-        <v>225588.6438971251</v>
+        <v>225537.6132349407</v>
       </c>
       <c r="F6" t="n">
-        <v>441328.0004537657</v>
+        <v>441276.9697915809</v>
       </c>
       <c r="G6" t="n">
-        <v>441328.0004537657</v>
+        <v>441276.9697915811</v>
       </c>
       <c r="H6" t="n">
-        <v>441328.0004537656</v>
+        <v>441276.9697915809</v>
       </c>
       <c r="I6" t="n">
-        <v>441328.0004537656</v>
+        <v>441276.9697915811</v>
       </c>
       <c r="J6" t="n">
-        <v>314750.7318734769</v>
+        <v>314699.7012112922</v>
       </c>
       <c r="K6" t="n">
-        <v>422681.4000967459</v>
+        <v>422630.3694345611</v>
       </c>
       <c r="L6" t="n">
-        <v>441328.0004537654</v>
+        <v>441276.969791581</v>
       </c>
       <c r="M6" t="n">
-        <v>261264.1289985984</v>
+        <v>261213.0983364135</v>
       </c>
       <c r="N6" t="n">
-        <v>441328.0004537662</v>
+        <v>441276.969791581</v>
       </c>
       <c r="O6" t="n">
-        <v>441328.0004537659</v>
+        <v>441276.9697915812</v>
       </c>
       <c r="P6" t="n">
-        <v>441328.0004537659</v>
+        <v>441276.9697915811</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539677</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539677</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162643</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539677</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162643</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572631</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539677</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162643</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>107.6276504895463</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>231.6731933331288</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -27554,7 +27554,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>276.7410423622957</v>
+        <v>56.24987949229964</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>152.6181964616704</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>299.5201544024733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
-        <v>143.6773959976856</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>296.8468361521187</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>53.82850041003985</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27912,13 +27912,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>150.0045900020173</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>18.4496713308867</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-5.176763260911303e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539677</v>
+        <v>462.996956706969</v>
       </c>
       <c r="L2" t="n">
-        <v>345.4863855700676</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539677</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539677</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539677</v>
+        <v>292.7793411803261</v>
       </c>
       <c r="M3" t="n">
-        <v>18.33743281710261</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539677</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539677</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759566716</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>134.9403475485734</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.06155854104185</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>444.6058781505033</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>440.0596680121641</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.5286477120479</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N12" t="n">
-        <v>624.4161849831406</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366201</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35661,16 +35661,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>17.02841056777183</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>324.5199828674612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35819,10 +35819,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977433</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968675</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35886,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>250.2833982656047</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937755</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>188.528647712048</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36138,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>156.3328515901144</v>
       </c>
       <c r="M21" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>310.3818991832499</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,10 +36609,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>106.3043917586369</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.07204871127058</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404401</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O31" t="n">
-        <v>359.0183117977272</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968696</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
         <v>128.2829598391535</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,7 +37080,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>238.7351072494335</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>324.5199828674612</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>455.471887052611</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>760.3041339439036</v>
+        <v>499.553882840162</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127058</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.1371666366169</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404401</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
-        <v>359.0183117977404</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968696</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>200.7306752811519</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968626</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37791,19 +37791,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>587.9026025434077</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127058</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937748</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.272041711536</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>395.1371666366169</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404401</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977404</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968696</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>886.8993927061656</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
